--- a/src/main/java/Main/test.xlsx
+++ b/src/main/java/Main/test.xlsx
@@ -1,343 +1,366 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1166ED0-F47C-493C-B9A6-1CF811A38F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sayfa4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sayfa2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sayfa3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sayfa4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="98">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>İsim</t>
-  </si>
-  <si>
-    <t>Soyisim</t>
-  </si>
-  <si>
-    <t>Doğum Tarihi</t>
-  </si>
-  <si>
-    <t>Eşi</t>
-  </si>
-  <si>
-    <t>Anne Adı</t>
-  </si>
-  <si>
-    <t>Baba Adı</t>
-  </si>
-  <si>
-    <t>Kan Grubu</t>
-  </si>
-  <si>
-    <t>Meslek</t>
-  </si>
-  <si>
-    <t>Medeni Hali</t>
-  </si>
-  <si>
-    <t>Kızlık Soyismi</t>
-  </si>
-  <si>
-    <t>Cinsiyet</t>
-  </si>
-  <si>
-    <t>Emin</t>
-  </si>
-  <si>
-    <t>Kaya</t>
-  </si>
-  <si>
-    <t>Sena Kaya</t>
-  </si>
-  <si>
-    <t>Ayşe</t>
-  </si>
-  <si>
-    <t>Mehmet</t>
-  </si>
-  <si>
-    <t>0(-)</t>
-  </si>
-  <si>
-    <t>Marangoz</t>
-  </si>
-  <si>
-    <t>Evli</t>
-  </si>
-  <si>
-    <t>Erkek</t>
-  </si>
-  <si>
-    <t>Sena</t>
-  </si>
-  <si>
-    <t>Emin Kaya</t>
-  </si>
-  <si>
-    <t>Hatice</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>A(-)</t>
-  </si>
-  <si>
-    <t>Ev Hanımı</t>
-  </si>
-  <si>
-    <t>Çetin</t>
-  </si>
-  <si>
-    <t>Kadın</t>
-  </si>
-  <si>
-    <t>Nazlı</t>
-  </si>
-  <si>
-    <t>Demir</t>
-  </si>
-  <si>
-    <t>Uğur Demir</t>
-  </si>
-  <si>
-    <t>Zeynep  Kılıç</t>
-  </si>
-  <si>
-    <t>Mustafa</t>
-  </si>
-  <si>
-    <t>Elif</t>
-  </si>
-  <si>
-    <t>Defne</t>
-  </si>
-  <si>
-    <t>Çelik</t>
-  </si>
-  <si>
-    <t>Ahmet Çelik</t>
-  </si>
-  <si>
-    <t>Uğur</t>
-  </si>
-  <si>
-    <t>AB(+)</t>
-  </si>
-  <si>
-    <t>Mühendis</t>
-  </si>
-  <si>
-    <t>Ömer</t>
-  </si>
-  <si>
-    <t>Eda</t>
-  </si>
-  <si>
-    <t>A(+)</t>
-  </si>
-  <si>
-    <t>Doktor</t>
-  </si>
-  <si>
-    <t>Zeynep</t>
-  </si>
-  <si>
-    <t>0(+)</t>
-  </si>
-  <si>
-    <t>Bekar</t>
-  </si>
-  <si>
-    <t>Öğrenci</t>
-  </si>
-  <si>
-    <t>Emre</t>
-  </si>
-  <si>
-    <t>Alper</t>
-  </si>
-  <si>
-    <t>İrem</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Nazlı Kaya</t>
-  </si>
-  <si>
-    <t>Fatma</t>
-  </si>
-  <si>
-    <t>Bayram</t>
-  </si>
-  <si>
-    <t>B(-)</t>
-  </si>
-  <si>
-    <t>Öğretmen</t>
-  </si>
-  <si>
-    <t>Eda Kara</t>
-  </si>
-  <si>
-    <t>Furkan</t>
-  </si>
-  <si>
-    <t>Feride</t>
-  </si>
-  <si>
-    <t>Yaşar</t>
-  </si>
-  <si>
-    <t>Terzi</t>
-  </si>
-  <si>
-    <t>Hayriye</t>
-  </si>
-  <si>
-    <t>Feyzi</t>
-  </si>
-  <si>
-    <t>Koç</t>
-  </si>
-  <si>
-    <t>Halime</t>
-  </si>
-  <si>
-    <t>Kurt</t>
-  </si>
-  <si>
-    <t>Faruk</t>
-  </si>
-  <si>
-    <t>Gül</t>
-  </si>
-  <si>
-    <t>Özkan</t>
-  </si>
-  <si>
-    <t>Hasan</t>
-  </si>
-  <si>
-    <t>Muhasebeci</t>
-  </si>
-  <si>
-    <t>Bekir</t>
-  </si>
-  <si>
-    <t>Kübra</t>
-  </si>
-  <si>
-    <t>Semra</t>
-  </si>
-  <si>
-    <t>Aslan</t>
-  </si>
-  <si>
-    <t>Mahmut Aslan</t>
-  </si>
-  <si>
-    <t>Esra</t>
-  </si>
-  <si>
-    <t>Orhan</t>
-  </si>
-  <si>
-    <t>Necmi</t>
-  </si>
-  <si>
-    <t>Gökçe</t>
-  </si>
-  <si>
-    <t>Polis</t>
-  </si>
-  <si>
-    <t>06.27.1992</t>
-  </si>
-  <si>
-    <t>Avukat</t>
-  </si>
-  <si>
-    <t>Yusuf</t>
-  </si>
-  <si>
-    <t>11.29.2018</t>
-  </si>
-  <si>
-    <t>Merve</t>
-  </si>
-  <si>
-    <t>Almila</t>
-  </si>
-  <si>
-    <t>02.14.2016</t>
-  </si>
-  <si>
-    <t>Yılmaz</t>
-  </si>
-  <si>
-    <t>Mahmut</t>
-  </si>
-  <si>
-    <t>Funda</t>
-  </si>
-  <si>
-    <t>Yakup</t>
-  </si>
-  <si>
-    <t>İşçi</t>
-  </si>
-  <si>
-    <t>Yıldız</t>
-  </si>
-  <si>
-    <t>Dul</t>
-  </si>
-  <si>
-    <t>Şimşek</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="102">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İsim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soyisim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doğum Tarihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eşi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne Adı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baba Adı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kan Grubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meslek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medeni Hali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kızlık Soyismi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinsiyet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sena Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayşe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0(-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marangoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erkek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emin Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A(-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ev Hanımı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çetin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadın</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazlı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uğur Demir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeynep  Kılıç</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mustafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çelik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmet Çelik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uğur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB(+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mühendis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ömer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A(+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeynep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0(+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Öğrenci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İrem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazlı Kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B(-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Öğretmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eda Kara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yaşar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayriye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feyzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koç</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gül</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Özkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhasebeci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bekir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kübra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aslan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmut Aslan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gökçe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/27/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avukat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yusuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yılmaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yakup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazi-fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İşçi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabrikatör</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdoğan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yıldız</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Şimşek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,7 +372,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -357,351 +380,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="12.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -738,8 +494,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -748,7 +504,7 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>16985</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -774,8 +530,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -784,7 +540,7 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>17924</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -812,8 +568,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -822,7 +578,7 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="n">
         <v>25255</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -850,8 +606,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -860,7 +616,7 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>26037</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -886,8 +642,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -896,7 +652,7 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>26880</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -922,8 +678,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -932,7 +688,7 @@
       <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>34158</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -960,8 +716,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -970,7 +726,7 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>34808</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -996,8 +752,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1006,7 +762,7 @@
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>36558</v>
       </c>
       <c r="E9" s="1"/>
@@ -1030,8 +786,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1040,7 +796,7 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>37881</v>
       </c>
       <c r="E10" s="1"/>
@@ -1064,8 +820,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1074,7 +830,7 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>38812</v>
       </c>
       <c r="E11" s="1"/>
@@ -1098,8 +854,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1108,7 +864,7 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>38270</v>
       </c>
       <c r="E12" s="1"/>
@@ -1132,8 +888,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1142,7 +898,7 @@
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>40065</v>
       </c>
       <c r="E13" s="1"/>
@@ -1166,8 +922,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1176,7 +932,7 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>44414</v>
       </c>
       <c r="E14" s="1"/>
@@ -1199,34 +955,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10960EFE-DC22-40EB-A212-2FA3A883182E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1259,12 +1024,12 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1273,7 +1038,7 @@
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>24657</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1295,12 +1060,12 @@
         <v>19</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
+      <c r="L2" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1309,7 +1074,7 @@
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>34158</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1337,8 +1102,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1347,7 +1112,7 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="n">
         <v>34808</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1369,12 +1134,12 @@
         <v>19</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="L4" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1383,7 +1148,7 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>40065</v>
       </c>
       <c r="E5" s="1"/>
@@ -1407,8 +1172,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1417,7 +1182,7 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>44414</v>
       </c>
       <c r="E6" s="1"/>
@@ -1435,39 +1200,48 @@
         <v>47</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" t="s">
+      <c r="L6" s="0" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8E73B2-5C08-4710-9C02-5A7334C0C90A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1500,12 +1274,12 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1514,7 +1288,7 @@
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>14977</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1536,12 +1310,12 @@
         <v>19</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
+      <c r="L2" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1550,7 +1324,7 @@
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>16595</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1574,12 +1348,12 @@
       <c r="K3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1588,7 +1362,7 @@
       <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="n">
         <v>23867</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1612,12 +1386,12 @@
       <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1626,7 +1400,7 @@
       <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>24872</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1650,12 +1424,12 @@
       <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1664,7 +1438,7 @@
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>25852</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1686,12 +1460,12 @@
         <v>19</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+      <c r="L6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1700,7 +1474,7 @@
       <c r="C7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>32457</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1724,12 +1498,12 @@
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1738,7 +1512,7 @@
       <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>33094</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1760,12 +1534,12 @@
         <v>19</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
+      <c r="L8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1774,7 +1548,7 @@
       <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>32875</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1796,12 +1570,12 @@
         <v>19</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
+      <c r="L9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1810,7 +1584,7 @@
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>33641</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1832,12 +1606,12 @@
         <v>19</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
+      <c r="L10" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1868,12 +1642,12 @@
         <v>19</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
+      <c r="L11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1882,7 +1656,7 @@
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>40065</v>
       </c>
       <c r="E12" s="1"/>
@@ -1902,12 +1676,12 @@
         <v>47</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" t="s">
+      <c r="L12" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1916,7 +1690,7 @@
       <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>42469</v>
       </c>
       <c r="E13" s="1"/>
@@ -1934,12 +1708,12 @@
         <v>47</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
+      <c r="L13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1966,12 +1740,12 @@
         <v>47</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
+      <c r="L14" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1980,7 +1754,7 @@
       <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>43018</v>
       </c>
       <c r="E15" s="1"/>
@@ -1998,12 +1772,12 @@
         <v>47</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" t="s">
+      <c r="L15" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2012,7 +1786,7 @@
       <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>41737</v>
       </c>
       <c r="E16" s="1"/>
@@ -2032,12 +1806,12 @@
         <v>47</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+      <c r="L16" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2064,12 +1838,12 @@
         <v>47</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" t="s">
+      <c r="L17" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2078,7 +1852,7 @@
       <c r="C18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>41199</v>
       </c>
       <c r="E18" s="1"/>
@@ -2098,39 +1872,48 @@
         <v>47</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" t="s">
+      <c r="L18" s="0" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F58F58-1669-4C75-B8FD-494281BD8E0A}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2163,132 +1946,139 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>16985</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>17924</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2">
-        <v>31695</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2">
-        <v>41199</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="2">
-        <v>34493</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="2" t="n">
+        <v>31695</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="2">
-        <v>41733</v>
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>41199</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -2297,13 +2087,86 @@
         <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>34493</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>41733</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L7" s="0" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/main/java/Main/test.xlsx
+++ b/src/main/java/Main/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="101">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Ömer</t>
   </si>
   <si>
-    <t xml:space="preserve">Eda</t>
+    <t xml:space="preserve">Eda Kara</t>
   </si>
   <si>
     <t xml:space="preserve">A(+)</t>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">Öğretmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eda Kara</t>
   </si>
   <si>
     <t xml:space="preserve">Furkan</t>
@@ -442,16 +439,16 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="12.57"/>
   </cols>
@@ -972,11 +969,11 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
@@ -1116,7 +1113,7 @@
         <v>34808</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>29</v>
@@ -1226,7 +1223,7 @@
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
@@ -1283,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -1295,16 +1292,16 @@
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -1328,13 +1325,13 @@
         <v>16595</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>39</v>
@@ -1346,7 +1343,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>28</v>
@@ -1357,22 +1354,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>23867</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>39</v>
@@ -1395,28 +1392,28 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>24872</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
@@ -1433,7 +1430,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
@@ -1442,19 +1439,19 @@
         <v>25852</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
@@ -1469,22 +1466,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>32457</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>56</v>
@@ -1507,22 +1504,22 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>33094</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>39</v>
@@ -1543,28 +1540,28 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>32875</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -1579,28 +1576,28 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>33641</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
@@ -1621,22 +1618,22 @@
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>19</v>
@@ -1685,20 +1682,20 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>42469</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>46</v>
@@ -1717,20 +1714,20 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>43</v>
@@ -1749,20 +1746,20 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>43018</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>56</v>
@@ -1784,17 +1781,17 @@
         <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>41737</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>43</v>
@@ -1815,20 +1812,20 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>39</v>
@@ -1847,20 +1844,20 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>41199</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
@@ -1894,11 +1891,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
@@ -1955,28 +1952,28 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>16985</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>19</v>
@@ -1991,16 +1988,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17924</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
@@ -2012,13 +2009,13 @@
         <v>56</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>28</v>
@@ -2029,28 +2026,28 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>31695</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -2065,20 +2062,20 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>41199</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -2099,20 +2096,20 @@
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>34493</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>39</v>
@@ -2121,7 +2118,7 @@
         <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>28</v>
@@ -2135,14 +2132,14 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>41733</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>52</v>

--- a/src/main/java/Main/test.xlsx
+++ b/src/main/java/Main/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="114">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Kaya</t>
   </si>
   <si>
-    <t xml:space="preserve">Sena Kaya</t>
+    <t xml:space="preserve">2 Sena Kaya</t>
   </si>
   <si>
     <t xml:space="preserve">Ayşe</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Sena</t>
   </si>
   <si>
-    <t xml:space="preserve">Emin Kaya</t>
+    <t xml:space="preserve">1 Emin Kaya</t>
   </si>
   <si>
     <t xml:space="preserve">Hatice</t>
@@ -118,73 +118,79 @@
     <t xml:space="preserve">Demir</t>
   </si>
   <si>
-    <t xml:space="preserve">Uğur Demir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeynep  Kılıç</t>
+    <t xml:space="preserve">14 Uğur Demir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 Zeynep  Kılıç</t>
   </si>
   <si>
     <t xml:space="preserve">Mustafa</t>
   </si>
   <si>
+    <t xml:space="preserve">38 Elif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çelik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Ahmet Çelik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uğur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB(+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mühendis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ömer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 Eda Kara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A(+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeynep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0(+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Öğrenci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alper</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elif</t>
   </si>
   <si>
-    <t xml:space="preserve">Defne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çelik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmet Çelik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uğur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mühendis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ömer</t>
+    <t xml:space="preserve">İrem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmet</t>
   </si>
   <si>
     <t xml:space="preserve">Eda Kara</t>
   </si>
   <si>
-    <t xml:space="preserve">A(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doktor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeynep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0(+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bekar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Öğrenci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İrem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nazlı Kaya</t>
+    <t xml:space="preserve">3 Nazlı Kaya</t>
   </si>
   <si>
     <t xml:space="preserve">Fatma</t>
@@ -202,6 +208,9 @@
     <t xml:space="preserve">Furkan</t>
   </si>
   <si>
+    <t xml:space="preserve">16 Zeynep</t>
+  </si>
+  <si>
     <t xml:space="preserve">Feride</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
     <t xml:space="preserve">Terzi</t>
   </si>
   <si>
+    <t xml:space="preserve">15 Furkan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hayriye</t>
   </si>
   <si>
@@ -226,72 +238,90 @@
     <t xml:space="preserve">Kurt</t>
   </si>
   <si>
+    <t xml:space="preserve">40 Faruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gül</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Özkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhasebeci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bekir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 Kübra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aslan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 Mahmut Aslan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Faruk</t>
   </si>
   <si>
-    <t xml:space="preserve">Gül</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Özkan</t>
+    <t xml:space="preserve">43 Esra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 Feride</t>
   </si>
   <si>
     <t xml:space="preserve">Hasan</t>
   </si>
   <si>
-    <t xml:space="preserve">Muhasebeci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bekir</t>
+    <t xml:space="preserve">Necmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 Gökçe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/27/1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Defne</t>
   </si>
   <si>
     <t xml:space="preserve">Kübra</t>
   </si>
   <si>
-    <t xml:space="preserve">Semra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aslan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahmut Aslan</t>
+    <t xml:space="preserve">Avukat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yusuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gökçe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merve</t>
   </si>
   <si>
     <t xml:space="preserve">Esra</t>
   </si>
   <si>
-    <t xml:space="preserve">Orhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gökçe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/27/1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avukat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yusuf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/29/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merve</t>
-  </si>
-  <si>
     <t xml:space="preserve">Almila</t>
   </si>
   <si>
-    <t xml:space="preserve">02/14/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yılmaz</t>
   </si>
   <si>
@@ -301,22 +331,31 @@
     <t xml:space="preserve">Yakup</t>
   </si>
   <si>
+    <t xml:space="preserve">32 Funda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazi-fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İşçi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Funda</t>
   </si>
   <si>
-    <t xml:space="preserve">Nazi-fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bedri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İşçi</t>
+    <t xml:space="preserve">31 Yakup</t>
   </si>
   <si>
     <t xml:space="preserve">Fabrikatör</t>
   </si>
   <si>
     <t xml:space="preserve">Erdoğan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Semra</t>
   </si>
   <si>
     <t xml:space="preserve">Yıldız</t>
@@ -332,9 +371,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -402,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,6 +452,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,10 +483,10 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.71"/>
@@ -866,7 +910,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>33</v>
@@ -890,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -903,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>43</v>
@@ -934,7 +978,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
@@ -969,11 +1013,11 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
@@ -1039,19 +1083,19 @@
         <v>24657</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -1140,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
@@ -1153,7 +1197,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>43</v>
@@ -1184,7 +1228,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
@@ -1220,15 +1264,15 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
@@ -1280,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -1289,19 +1333,19 @@
         <v>14977</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
@@ -1325,13 +1369,13 @@
         <v>16595</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>39</v>
@@ -1343,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>28</v>
@@ -1354,22 +1398,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>23867</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>39</v>
@@ -1392,28 +1436,28 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>24872</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
@@ -1430,7 +1474,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
@@ -1439,19 +1483,19 @@
         <v>25852</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
@@ -1466,25 +1510,25 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>32457</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
@@ -1504,22 +1548,22 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>33094</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>39</v>
@@ -1540,28 +1584,28 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>32875</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -1576,28 +1620,28 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>33641</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
@@ -1612,28 +1656,28 @@
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>19</v>
@@ -1648,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
@@ -1661,7 +1705,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>43</v>
@@ -1682,20 +1726,20 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>42469</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>46</v>
@@ -1714,20 +1758,20 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>43</v>
@@ -1746,23 +1790,23 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>43018</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
@@ -1778,20 +1822,20 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>41737</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>43</v>
@@ -1807,25 +1851,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>42414</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>39</v>
@@ -1844,20 +1888,20 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>41199</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
@@ -1891,11 +1935,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
@@ -1951,34 +1995,34 @@
       <c r="A2" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>16985</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="I2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="0" t="s">
         <v>20</v>
       </c>
@@ -1987,35 +2031,35 @@
       <c r="A3" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>75</v>
+      <c r="B3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17924</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>97</v>
+      <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>28</v>
@@ -2026,28 +2070,28 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>31695</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -2062,20 +2106,20 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>41199</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -2096,29 +2140,29 @@
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>34493</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>28</v>
@@ -2129,20 +2173,20 @@
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>41733</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>17</v>
